--- a/SOTA/fleetmin.xlsx
+++ b/SOTA/fleetmin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\useful\PDPTW\SOTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C6526-BA88-43BE-85B1-C27270F797AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3319E6-CA10-47F3-90C5-A0B95A80EC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="42">
   <si>
     <t xml:space="preserve"> Inst   </t>
   </si>
@@ -137,12 +137,35 @@
   <si>
     <t xml:space="preserve"> poa-n100-7 </t>
   </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fleetmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +178,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,13 +205,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,15 +495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP29"/>
+  <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>30</v>
       </c>
@@ -596,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -706,7 +744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -725,6 +763,10 @@
       <c r="G3">
         <v>6</v>
       </c>
+      <c r="H3">
+        <f>(D3-G3)/G3</f>
+        <v>0</v>
+      </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -743,6 +785,10 @@
       <c r="N3">
         <v>6</v>
       </c>
+      <c r="O3">
+        <f>(K3-N3)/N3</f>
+        <v>0</v>
+      </c>
       <c r="P3" t="s">
         <v>12</v>
       </c>
@@ -761,6 +807,10 @@
       <c r="U3">
         <v>6</v>
       </c>
+      <c r="V3">
+        <f>(R3-U3)/U3</f>
+        <v>0</v>
+      </c>
       <c r="W3" t="s">
         <v>12</v>
       </c>
@@ -779,6 +829,10 @@
       <c r="AB3">
         <v>6</v>
       </c>
+      <c r="AC3">
+        <f>(Y3-AB3)/AB3</f>
+        <v>0</v>
+      </c>
       <c r="AD3" t="s">
         <v>12</v>
       </c>
@@ -797,6 +851,10 @@
       <c r="AI3">
         <v>6</v>
       </c>
+      <c r="AJ3">
+        <f>(AF3-AI3)/AI3</f>
+        <v>0</v>
+      </c>
       <c r="AK3" t="s">
         <v>12</v>
       </c>
@@ -815,8 +873,12 @@
       <c r="AP3">
         <v>6</v>
       </c>
+      <c r="AQ3">
+        <f>(AM3-AP3)/AP3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -835,6 +897,10 @@
       <c r="G4">
         <v>5</v>
       </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H27" si="0">(D4-G4)/G4</f>
+        <v>0</v>
+      </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
@@ -853,6 +919,10 @@
       <c r="N4">
         <v>5</v>
       </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O27" si="1">(K4-N4)/N4</f>
+        <v>0</v>
+      </c>
       <c r="P4" t="s">
         <v>13</v>
       </c>
@@ -871,6 +941,10 @@
       <c r="U4">
         <v>5</v>
       </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V27" si="2">(R4-U4)/U4</f>
+        <v>0</v>
+      </c>
       <c r="W4" t="s">
         <v>13</v>
       </c>
@@ -889,6 +963,10 @@
       <c r="AB4">
         <v>5</v>
       </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC27" si="3">(Y4-AB4)/AB4</f>
+        <v>0</v>
+      </c>
       <c r="AD4" t="s">
         <v>13</v>
       </c>
@@ -907,6 +985,10 @@
       <c r="AI4">
         <v>5</v>
       </c>
+      <c r="AJ4">
+        <f t="shared" ref="AJ4:AJ27" si="4">(AF4-AI4)/AI4</f>
+        <v>0</v>
+      </c>
       <c r="AK4" t="s">
         <v>13</v>
       </c>
@@ -925,8 +1007,12 @@
       <c r="AP4">
         <v>5</v>
       </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ27" si="5">(AM4-AP4)/AP4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -945,6 +1031,10 @@
       <c r="G5">
         <v>6</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
@@ -963,6 +1053,10 @@
       <c r="N5">
         <v>6</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P5" t="s">
         <v>14</v>
       </c>
@@ -981,6 +1075,10 @@
       <c r="U5">
         <v>6</v>
       </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W5" t="s">
         <v>14</v>
       </c>
@@ -999,6 +1097,10 @@
       <c r="AB5">
         <v>6</v>
       </c>
+      <c r="AC5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD5" t="s">
         <v>14</v>
       </c>
@@ -1017,6 +1119,10 @@
       <c r="AI5">
         <v>6</v>
       </c>
+      <c r="AJ5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK5" t="s">
         <v>14</v>
       </c>
@@ -1035,8 +1141,12 @@
       <c r="AP5">
         <v>6</v>
       </c>
+      <c r="AQ5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1055,6 +1165,10 @@
       <c r="G6">
         <v>12</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
@@ -1073,6 +1187,10 @@
       <c r="N6">
         <v>12</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="P6" t="s">
         <v>15</v>
       </c>
@@ -1091,6 +1209,10 @@
       <c r="U6">
         <v>12</v>
       </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="W6" t="s">
         <v>15</v>
       </c>
@@ -1109,6 +1231,10 @@
       <c r="AB6">
         <v>12</v>
       </c>
+      <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="AD6" t="s">
         <v>15</v>
       </c>
@@ -1127,6 +1253,10 @@
       <c r="AI6">
         <v>12</v>
       </c>
+      <c r="AJ6">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AK6" t="s">
         <v>15</v>
       </c>
@@ -1145,8 +1275,12 @@
       <c r="AP6">
         <v>12</v>
       </c>
+      <c r="AQ6">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1165,6 +1299,10 @@
       <c r="G7">
         <v>6</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
@@ -1183,6 +1321,10 @@
       <c r="N7">
         <v>6</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P7" t="s">
         <v>16</v>
       </c>
@@ -1201,6 +1343,10 @@
       <c r="U7">
         <v>6</v>
       </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W7" t="s">
         <v>16</v>
       </c>
@@ -1219,6 +1365,10 @@
       <c r="AB7">
         <v>6</v>
       </c>
+      <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD7" t="s">
         <v>16</v>
       </c>
@@ -1237,6 +1387,10 @@
       <c r="AI7">
         <v>6</v>
       </c>
+      <c r="AJ7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK7" t="s">
         <v>16</v>
       </c>
@@ -1255,8 +1409,12 @@
       <c r="AP7">
         <v>6</v>
       </c>
+      <c r="AQ7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1275,6 +1433,10 @@
       <c r="G8">
         <v>3</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
@@ -1293,6 +1455,10 @@
       <c r="N8">
         <v>3</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="P8" t="s">
         <v>17</v>
       </c>
@@ -1311,6 +1477,10 @@
       <c r="U8">
         <v>3</v>
       </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="W8" t="s">
         <v>17</v>
       </c>
@@ -1329,6 +1499,10 @@
       <c r="AB8">
         <v>3</v>
       </c>
+      <c r="AC8">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="AD8" t="s">
         <v>17</v>
       </c>
@@ -1347,6 +1521,10 @@
       <c r="AI8">
         <v>3</v>
       </c>
+      <c r="AJ8">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="AK8" t="s">
         <v>17</v>
       </c>
@@ -1365,8 +1543,12 @@
       <c r="AP8">
         <v>3</v>
       </c>
+      <c r="AQ8">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1385,6 +1567,10 @@
       <c r="G9">
         <v>13</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
       <c r="I9" t="s">
         <v>18</v>
       </c>
@@ -1403,6 +1589,10 @@
       <c r="N9">
         <v>13</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="P9" t="s">
         <v>18</v>
       </c>
@@ -1421,6 +1611,10 @@
       <c r="U9">
         <v>13</v>
       </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="W9" t="s">
         <v>18</v>
       </c>
@@ -1439,6 +1633,10 @@
       <c r="AB9">
         <v>13</v>
       </c>
+      <c r="AC9">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="AD9" t="s">
         <v>18</v>
       </c>
@@ -1457,6 +1655,10 @@
       <c r="AI9">
         <v>13</v>
       </c>
+      <c r="AJ9">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="AK9" t="s">
         <v>18</v>
       </c>
@@ -1475,8 +1677,12 @@
       <c r="AP9">
         <v>13</v>
       </c>
+      <c r="AQ9">
+        <f t="shared" si="5"/>
+        <v>0.15384615384615385</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1495,6 +1701,10 @@
       <c r="G10">
         <v>6</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
@@ -1513,6 +1723,10 @@
       <c r="N10">
         <v>6</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="P10" t="s">
         <v>19</v>
       </c>
@@ -1531,6 +1745,10 @@
       <c r="U10">
         <v>6</v>
       </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="W10" t="s">
         <v>19</v>
       </c>
@@ -1549,6 +1767,10 @@
       <c r="AB10">
         <v>6</v>
       </c>
+      <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="AD10" t="s">
         <v>19</v>
       </c>
@@ -1567,6 +1789,10 @@
       <c r="AI10">
         <v>6</v>
       </c>
+      <c r="AJ10">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="AK10" t="s">
         <v>19</v>
       </c>
@@ -1585,8 +1811,12 @@
       <c r="AP10">
         <v>6</v>
       </c>
+      <c r="AQ10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1605,6 +1835,10 @@
       <c r="G11">
         <v>3</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I11" t="s">
         <v>20</v>
       </c>
@@ -1623,6 +1857,10 @@
       <c r="N11">
         <v>3</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P11" t="s">
         <v>20</v>
       </c>
@@ -1641,6 +1879,10 @@
       <c r="U11">
         <v>3</v>
       </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W11" t="s">
         <v>20</v>
       </c>
@@ -1659,6 +1901,10 @@
       <c r="AB11">
         <v>3</v>
       </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD11" t="s">
         <v>20</v>
       </c>
@@ -1677,6 +1923,10 @@
       <c r="AI11">
         <v>3</v>
       </c>
+      <c r="AJ11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK11" t="s">
         <v>20</v>
       </c>
@@ -1695,8 +1945,12 @@
       <c r="AP11">
         <v>3</v>
       </c>
+      <c r="AQ11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1715,6 +1969,10 @@
       <c r="G12">
         <v>3</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
@@ -1733,6 +1991,10 @@
       <c r="N12">
         <v>3</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P12" t="s">
         <v>21</v>
       </c>
@@ -1751,6 +2013,10 @@
       <c r="U12">
         <v>3</v>
       </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W12" t="s">
         <v>21</v>
       </c>
@@ -1769,6 +2035,10 @@
       <c r="AB12">
         <v>3</v>
       </c>
+      <c r="AC12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD12" t="s">
         <v>21</v>
       </c>
@@ -1787,6 +2057,10 @@
       <c r="AI12">
         <v>3</v>
       </c>
+      <c r="AJ12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK12" t="s">
         <v>21</v>
       </c>
@@ -1805,8 +2079,12 @@
       <c r="AP12">
         <v>3</v>
       </c>
+      <c r="AQ12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1825,6 +2103,10 @@
       <c r="G13">
         <v>5</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
@@ -1843,6 +2125,10 @@
       <c r="N13">
         <v>5</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P13" t="s">
         <v>22</v>
       </c>
@@ -1861,6 +2147,10 @@
       <c r="U13">
         <v>5</v>
       </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W13" t="s">
         <v>22</v>
       </c>
@@ -1879,6 +2169,10 @@
       <c r="AB13">
         <v>5</v>
       </c>
+      <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD13" t="s">
         <v>22</v>
       </c>
@@ -1897,6 +2191,10 @@
       <c r="AI13">
         <v>5</v>
       </c>
+      <c r="AJ13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK13" t="s">
         <v>22</v>
       </c>
@@ -1915,8 +2213,12 @@
       <c r="AP13">
         <v>5</v>
       </c>
+      <c r="AQ13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1935,6 +2237,10 @@
       <c r="G14">
         <v>14</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
@@ -1953,6 +2259,10 @@
       <c r="N14">
         <v>14</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
       <c r="P14" t="s">
         <v>23</v>
       </c>
@@ -1971,6 +2281,10 @@
       <c r="U14">
         <v>14</v>
       </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
       <c r="W14" t="s">
         <v>23</v>
       </c>
@@ -1989,6 +2303,10 @@
       <c r="AB14">
         <v>14</v>
       </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
       <c r="AD14" t="s">
         <v>23</v>
       </c>
@@ -2007,6 +2325,10 @@
       <c r="AI14">
         <v>14</v>
       </c>
+      <c r="AJ14">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
       <c r="AK14" t="s">
         <v>23</v>
       </c>
@@ -2025,8 +2347,12 @@
       <c r="AP14">
         <v>14</v>
       </c>
+      <c r="AQ14">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -2045,6 +2371,10 @@
       <c r="G15">
         <v>7</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="I15" t="s">
         <v>24</v>
       </c>
@@ -2063,6 +2393,10 @@
       <c r="N15">
         <v>7</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="P15" t="s">
         <v>24</v>
       </c>
@@ -2081,6 +2415,10 @@
       <c r="U15">
         <v>7</v>
       </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W15" t="s">
         <v>24</v>
       </c>
@@ -2099,6 +2437,10 @@
       <c r="AB15">
         <v>7</v>
       </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="AD15" t="s">
         <v>24</v>
       </c>
@@ -2117,6 +2459,10 @@
       <c r="AI15">
         <v>7</v>
       </c>
+      <c r="AJ15">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="AK15" t="s">
         <v>24</v>
       </c>
@@ -2135,8 +2481,12 @@
       <c r="AP15">
         <v>7</v>
       </c>
+      <c r="AQ15">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -2155,6 +2505,10 @@
       <c r="G16">
         <v>6</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
@@ -2173,6 +2527,10 @@
       <c r="N16">
         <v>6</v>
       </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P16" t="s">
         <v>25</v>
       </c>
@@ -2191,6 +2549,10 @@
       <c r="U16">
         <v>6</v>
       </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W16" t="s">
         <v>25</v>
       </c>
@@ -2209,6 +2571,10 @@
       <c r="AB16">
         <v>6</v>
       </c>
+      <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD16" t="s">
         <v>25</v>
       </c>
@@ -2227,6 +2593,10 @@
       <c r="AI16">
         <v>6</v>
       </c>
+      <c r="AJ16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK16" t="s">
         <v>25</v>
       </c>
@@ -2245,8 +2615,12 @@
       <c r="AP16">
         <v>6</v>
       </c>
+      <c r="AQ16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -2265,6 +2639,10 @@
       <c r="G17">
         <v>4</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I17" t="s">
         <v>26</v>
       </c>
@@ -2283,6 +2661,10 @@
       <c r="N17">
         <v>4</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P17" t="s">
         <v>26</v>
       </c>
@@ -2301,6 +2683,10 @@
       <c r="U17">
         <v>4</v>
       </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W17" t="s">
         <v>26</v>
       </c>
@@ -2319,6 +2705,10 @@
       <c r="AB17">
         <v>4</v>
       </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD17" t="s">
         <v>26</v>
       </c>
@@ -2337,6 +2727,10 @@
       <c r="AI17">
         <v>4</v>
       </c>
+      <c r="AJ17">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
       <c r="AK17" t="s">
         <v>26</v>
       </c>
@@ -2355,8 +2749,12 @@
       <c r="AP17">
         <v>4</v>
       </c>
+      <c r="AQ17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -2375,6 +2773,10 @@
       <c r="G18">
         <v>3</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="I18" t="s">
         <v>27</v>
       </c>
@@ -2393,6 +2795,10 @@
       <c r="N18">
         <v>3</v>
       </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="P18" t="s">
         <v>27</v>
       </c>
@@ -2411,6 +2817,10 @@
       <c r="U18">
         <v>3</v>
       </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="W18" t="s">
         <v>27</v>
       </c>
@@ -2429,6 +2839,10 @@
       <c r="AB18">
         <v>3</v>
       </c>
+      <c r="AC18">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="AD18" t="s">
         <v>27</v>
       </c>
@@ -2447,6 +2861,10 @@
       <c r="AI18">
         <v>3</v>
       </c>
+      <c r="AJ18">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="AK18" t="s">
         <v>27</v>
       </c>
@@ -2465,8 +2883,12 @@
       <c r="AP18">
         <v>3</v>
       </c>
+      <c r="AQ18">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -2485,6 +2907,10 @@
       <c r="G19">
         <v>2</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I19" t="s">
         <v>28</v>
       </c>
@@ -2503,6 +2929,10 @@
       <c r="N19">
         <v>2</v>
       </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
       <c r="P19" t="s">
         <v>28</v>
       </c>
@@ -2521,6 +2951,10 @@
       <c r="U19">
         <v>2</v>
       </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
       <c r="W19" t="s">
         <v>28</v>
       </c>
@@ -2539,6 +2973,10 @@
       <c r="AB19">
         <v>2</v>
       </c>
+      <c r="AC19">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
       <c r="AD19" t="s">
         <v>28</v>
       </c>
@@ -2557,6 +2995,10 @@
       <c r="AI19">
         <v>2</v>
       </c>
+      <c r="AJ19">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
       <c r="AK19" t="s">
         <v>28</v>
       </c>
@@ -2575,8 +3017,12 @@
       <c r="AP19">
         <v>2</v>
       </c>
+      <c r="AQ19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -2595,6 +3041,10 @@
       <c r="G20">
         <v>2</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="I20" t="s">
         <v>29</v>
       </c>
@@ -2613,6 +3063,10 @@
       <c r="N20">
         <v>2</v>
       </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
       <c r="P20" t="s">
         <v>29</v>
       </c>
@@ -2631,6 +3085,10 @@
       <c r="U20">
         <v>2</v>
       </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
       <c r="W20" t="s">
         <v>29</v>
       </c>
@@ -2649,6 +3107,10 @@
       <c r="AB20">
         <v>2</v>
       </c>
+      <c r="AC20">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
       <c r="AD20" t="s">
         <v>29</v>
       </c>
@@ -2667,6 +3129,10 @@
       <c r="AI20">
         <v>2</v>
       </c>
+      <c r="AJ20">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
       <c r="AK20" t="s">
         <v>29</v>
       </c>
@@ -2685,8 +3151,12 @@
       <c r="AP20">
         <v>2</v>
       </c>
+      <c r="AQ20">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -2705,6 +3175,10 @@
       <c r="G21">
         <v>12</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I21" t="s">
         <v>30</v>
       </c>
@@ -2723,6 +3197,10 @@
       <c r="N21">
         <v>12</v>
       </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="P21" t="s">
         <v>30</v>
       </c>
@@ -2741,6 +3219,10 @@
       <c r="U21">
         <v>12</v>
       </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="W21" t="s">
         <v>30</v>
       </c>
@@ -2759,6 +3241,10 @@
       <c r="AB21">
         <v>12</v>
       </c>
+      <c r="AC21">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AD21" t="s">
         <v>30</v>
       </c>
@@ -2777,6 +3263,10 @@
       <c r="AI21">
         <v>12</v>
       </c>
+      <c r="AJ21">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AK21" t="s">
         <v>30</v>
       </c>
@@ -2795,8 +3285,12 @@
       <c r="AP21">
         <v>12</v>
       </c>
+      <c r="AQ21">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>31</v>
       </c>
@@ -2815,6 +3309,10 @@
       <c r="G22">
         <v>15</v>
       </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="I22" t="s">
         <v>31</v>
       </c>
@@ -2833,6 +3331,10 @@
       <c r="N22">
         <v>15</v>
       </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="P22" t="s">
         <v>31</v>
       </c>
@@ -2851,6 +3353,10 @@
       <c r="U22">
         <v>15</v>
       </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="W22" t="s">
         <v>31</v>
       </c>
@@ -2869,6 +3375,10 @@
       <c r="AB22">
         <v>15</v>
       </c>
+      <c r="AC22">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="AD22" t="s">
         <v>31</v>
       </c>
@@ -2887,6 +3397,10 @@
       <c r="AI22">
         <v>15</v>
       </c>
+      <c r="AJ22">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="AK22" t="s">
         <v>31</v>
       </c>
@@ -2905,8 +3419,12 @@
       <c r="AP22">
         <v>15</v>
       </c>
+      <c r="AQ22">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -2925,6 +3443,10 @@
       <c r="G23">
         <v>10</v>
       </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
       <c r="I23" t="s">
         <v>32</v>
       </c>
@@ -2943,6 +3465,10 @@
       <c r="N23">
         <v>10</v>
       </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="P23" t="s">
         <v>32</v>
       </c>
@@ -2961,6 +3487,10 @@
       <c r="U23">
         <v>10</v>
       </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
       <c r="W23" t="s">
         <v>32</v>
       </c>
@@ -2979,6 +3509,10 @@
       <c r="AB23">
         <v>10</v>
       </c>
+      <c r="AC23">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
       <c r="AD23" t="s">
         <v>32</v>
       </c>
@@ -2997,6 +3531,10 @@
       <c r="AI23">
         <v>10</v>
       </c>
+      <c r="AJ23">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
       <c r="AK23" t="s">
         <v>32</v>
       </c>
@@ -3015,8 +3553,12 @@
       <c r="AP23">
         <v>10</v>
       </c>
+      <c r="AQ23">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -3035,6 +3577,10 @@
       <c r="G24">
         <v>7</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
       <c r="I24" t="s">
         <v>33</v>
       </c>
@@ -3053,6 +3599,10 @@
       <c r="N24">
         <v>7</v>
       </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
       <c r="P24" t="s">
         <v>33</v>
       </c>
@@ -3071,6 +3621,10 @@
       <c r="U24">
         <v>7</v>
       </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
       <c r="W24" t="s">
         <v>33</v>
       </c>
@@ -3089,6 +3643,10 @@
       <c r="AB24">
         <v>7</v>
       </c>
+      <c r="AC24">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
       <c r="AD24" t="s">
         <v>33</v>
       </c>
@@ -3107,6 +3665,10 @@
       <c r="AI24">
         <v>7</v>
       </c>
+      <c r="AJ24">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
       <c r="AK24" t="s">
         <v>33</v>
       </c>
@@ -3125,8 +3687,12 @@
       <c r="AP24">
         <v>7</v>
       </c>
+      <c r="AQ24">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -3145,6 +3711,10 @@
       <c r="G25">
         <v>6</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I25" t="s">
         <v>34</v>
       </c>
@@ -3163,6 +3733,10 @@
       <c r="N25">
         <v>6</v>
       </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P25" t="s">
         <v>34</v>
       </c>
@@ -3181,6 +3755,10 @@
       <c r="U25">
         <v>6</v>
       </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W25" t="s">
         <v>34</v>
       </c>
@@ -3199,6 +3777,10 @@
       <c r="AB25">
         <v>6</v>
       </c>
+      <c r="AC25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD25" t="s">
         <v>34</v>
       </c>
@@ -3217,6 +3799,10 @@
       <c r="AI25">
         <v>6</v>
       </c>
+      <c r="AJ25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK25" t="s">
         <v>34</v>
       </c>
@@ -3235,8 +3821,12 @@
       <c r="AP25">
         <v>6</v>
       </c>
+      <c r="AQ25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -3255,6 +3845,10 @@
       <c r="G26">
         <v>3</v>
       </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I26" t="s">
         <v>35</v>
       </c>
@@ -3273,6 +3867,10 @@
       <c r="N26">
         <v>3</v>
       </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P26" t="s">
         <v>35</v>
       </c>
@@ -3291,6 +3889,10 @@
       <c r="U26">
         <v>3</v>
       </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W26" t="s">
         <v>35</v>
       </c>
@@ -3309,6 +3911,10 @@
       <c r="AB26">
         <v>3</v>
       </c>
+      <c r="AC26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AD26" t="s">
         <v>35</v>
       </c>
@@ -3327,6 +3933,10 @@
       <c r="AI26">
         <v>3</v>
       </c>
+      <c r="AJ26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK26" t="s">
         <v>35</v>
       </c>
@@ -3345,8 +3955,12 @@
       <c r="AP26">
         <v>3</v>
       </c>
+      <c r="AQ26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -3365,6 +3979,10 @@
       <c r="G27">
         <v>5</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="I27" t="s">
         <v>36</v>
       </c>
@@ -3383,6 +4001,10 @@
       <c r="N27">
         <v>5</v>
       </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
       <c r="P27" t="s">
         <v>36</v>
       </c>
@@ -3401,6 +4023,10 @@
       <c r="U27">
         <v>5</v>
       </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
       <c r="W27" t="s">
         <v>36</v>
       </c>
@@ -3419,6 +4045,10 @@
       <c r="AB27">
         <v>5</v>
       </c>
+      <c r="AC27">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
       <c r="AD27" t="s">
         <v>36</v>
       </c>
@@ -3437,6 +4067,10 @@
       <c r="AI27">
         <v>5</v>
       </c>
+      <c r="AJ27">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
       <c r="AK27" t="s">
         <v>36</v>
       </c>
@@ -3455,8 +4089,12 @@
       <c r="AP27">
         <v>5</v>
       </c>
+      <c r="AQ27">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>AVERAGE(C3:C27)</f>
         <v>1023.12</v>
@@ -3477,6 +4115,10 @@
         <f>AVERAGE(G3:G27)</f>
         <v>6.56</v>
       </c>
+      <c r="H28">
+        <f>AVERAGE(H3:H27)</f>
+        <v>0.10082051282051281</v>
+      </c>
       <c r="J28">
         <f>AVERAGE(J3:J27)</f>
         <v>1022.96</v>
@@ -3497,6 +4139,10 @@
         <f>AVERAGE(N3:N27)</f>
         <v>6.56</v>
       </c>
+      <c r="O28">
+        <f>AVERAGE(O3:O27)</f>
+        <v>0.1210769230769231</v>
+      </c>
       <c r="Q28">
         <f>AVERAGE(Q3:Q27)</f>
         <v>1021.88</v>
@@ -3517,6 +4163,10 @@
         <f>AVERAGE(U3:U27)</f>
         <v>6.56</v>
       </c>
+      <c r="V28">
+        <f>AVERAGE(V3:V27)</f>
+        <v>0.11936263736263739</v>
+      </c>
       <c r="X28">
         <f>AVERAGE(X3:X27)</f>
         <v>1026.8800000000001</v>
@@ -3537,6 +4187,10 @@
         <f>AVERAGE(AB3:AB27)</f>
         <v>6.56</v>
       </c>
+      <c r="AC28">
+        <f>AVERAGE(AC3:AC27)</f>
+        <v>0.12507692307692309</v>
+      </c>
       <c r="AE28">
         <f>AVERAGE(AE3:AE27)</f>
         <v>1025.76</v>
@@ -3557,6 +4211,10 @@
         <f>AVERAGE(AI3:AI27)</f>
         <v>6.56</v>
       </c>
+      <c r="AJ28">
+        <f>AVERAGE(AJ3:AJ27)</f>
+        <v>0.12774358974358976</v>
+      </c>
       <c r="AL28">
         <f>AVERAGE(AL3:AL27)</f>
         <v>1023.92</v>
@@ -3577,8 +4235,12 @@
         <f>AVERAGE(AP3:AP27)</f>
         <v>6.56</v>
       </c>
+      <c r="AQ28">
+        <f>AVERAGE(AQ3:AQ27)</f>
+        <v>0.10148717948717949</v>
+      </c>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>SUM(C3:C27)</f>
         <v>25578</v>
@@ -3698,6 +4360,133 @@
       <c r="AP29">
         <f>SUM(AP3:AP27)</f>
         <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <f>C29</f>
+        <v>25578</v>
+      </c>
+      <c r="F34">
+        <f>J29</f>
+        <v>25574</v>
+      </c>
+      <c r="G34">
+        <f>Q29</f>
+        <v>25547</v>
+      </c>
+      <c r="H34">
+        <f>X29</f>
+        <v>25672</v>
+      </c>
+      <c r="I34">
+        <f>AE29</f>
+        <v>25644</v>
+      </c>
+      <c r="J34">
+        <f>AL29</f>
+        <v>25598</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <f>D29</f>
+        <v>179</v>
+      </c>
+      <c r="F35">
+        <f>K29</f>
+        <v>180</v>
+      </c>
+      <c r="G35">
+        <f>R29</f>
+        <v>180</v>
+      </c>
+      <c r="H35">
+        <f>Y29</f>
+        <v>181</v>
+      </c>
+      <c r="I35">
+        <f>AF29</f>
+        <v>180</v>
+      </c>
+      <c r="J35">
+        <f>AM29</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="1">
+        <v>9.0399999999999994E-3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.112E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>8.7600000000000004E-3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.372E-2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.225E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.10082000000000001</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.12107999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.11935999999999999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.12508</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.12773999999999999</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.10149</v>
       </c>
     </row>
   </sheetData>
